--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1536.899512638038</v>
+        <v>1781.544213559185</v>
       </c>
       <c r="AB2" t="n">
-        <v>2102.853716412551</v>
+        <v>2437.587389175339</v>
       </c>
       <c r="AC2" t="n">
-        <v>1902.160309091863</v>
+        <v>2204.947469927832</v>
       </c>
       <c r="AD2" t="n">
-        <v>1536899.512638038</v>
+        <v>1781544.213559185</v>
       </c>
       <c r="AE2" t="n">
-        <v>2102853.71641255</v>
+        <v>2437587.389175339</v>
       </c>
       <c r="AF2" t="n">
         <v>3.271429961861509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.97526041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1902160.309091863</v>
+        <v>2204947.469927832</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>789.9029612754406</v>
+        <v>946.4851361822332</v>
       </c>
       <c r="AB3" t="n">
-        <v>1080.780079676257</v>
+        <v>1295.022719301752</v>
       </c>
       <c r="AC3" t="n">
-        <v>977.6319457563234</v>
+        <v>1171.427568547394</v>
       </c>
       <c r="AD3" t="n">
-        <v>789902.9612754406</v>
+        <v>946485.1361822332</v>
       </c>
       <c r="AE3" t="n">
-        <v>1080780.079676257</v>
+        <v>1295022.719301752</v>
       </c>
       <c r="AF3" t="n">
         <v>5.133276210605535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>977631.9457563234</v>
+        <v>1171427.568547394</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>648.9942098049231</v>
+        <v>785.9993421710192</v>
       </c>
       <c r="AB4" t="n">
-        <v>887.9825094589161</v>
+        <v>1075.438975802067</v>
       </c>
       <c r="AC4" t="n">
-        <v>803.2347050474358</v>
+        <v>972.8005893395997</v>
       </c>
       <c r="AD4" t="n">
-        <v>648994.2098049232</v>
+        <v>785999.3421710192</v>
       </c>
       <c r="AE4" t="n">
-        <v>887982.509458916</v>
+        <v>1075438.975802067</v>
       </c>
       <c r="AF4" t="n">
         <v>5.841804777879741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.86848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>803234.7050474358</v>
+        <v>972800.5893395997</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>594.2697190472576</v>
+        <v>721.4190103353009</v>
       </c>
       <c r="AB5" t="n">
-        <v>813.1060469301366</v>
+        <v>987.0773167012753</v>
       </c>
       <c r="AC5" t="n">
-        <v>735.5043470126278</v>
+        <v>892.8720429670198</v>
       </c>
       <c r="AD5" t="n">
-        <v>594269.7190472576</v>
+        <v>721419.0103353008</v>
       </c>
       <c r="AE5" t="n">
-        <v>813106.0469301366</v>
+        <v>987077.3167012753</v>
       </c>
       <c r="AF5" t="n">
         <v>6.205109490667161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.29296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>735504.3470126279</v>
+        <v>892872.0429670197</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>553.4441143168663</v>
+        <v>670.839049753342</v>
       </c>
       <c r="AB6" t="n">
-        <v>757.2466534394498</v>
+        <v>917.8715832026647</v>
       </c>
       <c r="AC6" t="n">
-        <v>684.976095637541</v>
+        <v>830.2712075426597</v>
       </c>
       <c r="AD6" t="n">
-        <v>553444.1143168663</v>
+        <v>670839.0497533421</v>
       </c>
       <c r="AE6" t="n">
-        <v>757246.6534394498</v>
+        <v>917871.5832026647</v>
       </c>
       <c r="AF6" t="n">
         <v>6.451009163555793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.32942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>684976.095637541</v>
+        <v>830271.2075426597</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>518.3273774249728</v>
+        <v>635.789632669153</v>
       </c>
       <c r="AB7" t="n">
-        <v>709.1983847828695</v>
+        <v>869.915424476926</v>
       </c>
       <c r="AC7" t="n">
-        <v>641.5134863053763</v>
+        <v>786.891917298814</v>
       </c>
       <c r="AD7" t="n">
-        <v>518327.3774249728</v>
+        <v>635789.6326691529</v>
       </c>
       <c r="AE7" t="n">
-        <v>709198.3847828695</v>
+        <v>869915.424476926</v>
       </c>
       <c r="AF7" t="n">
         <v>6.630612356008764e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>641513.4863053763</v>
+        <v>786891.9172988139</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>513.9601054377831</v>
+        <v>631.4223606819631</v>
       </c>
       <c r="AB8" t="n">
-        <v>703.2228905795544</v>
+        <v>863.9399302736109</v>
       </c>
       <c r="AC8" t="n">
-        <v>636.1082848821668</v>
+        <v>781.4867158756044</v>
       </c>
       <c r="AD8" t="n">
-        <v>513960.1054377831</v>
+        <v>631422.3606819632</v>
       </c>
       <c r="AE8" t="n">
-        <v>703222.8905795544</v>
+        <v>863939.9302736109</v>
       </c>
       <c r="AF8" t="n">
         <v>6.657130948183029e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.57421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>636108.2848821668</v>
+        <v>781486.7158756044</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1121.478975437101</v>
+        <v>1324.634856944105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1534.457010353586</v>
+        <v>1812.423850036412</v>
       </c>
       <c r="AC2" t="n">
-        <v>1388.010586909379</v>
+        <v>1639.448661541786</v>
       </c>
       <c r="AD2" t="n">
-        <v>1121478.975437101</v>
+        <v>1324634.856944105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1534457.010353586</v>
+        <v>1812423.850036412</v>
       </c>
       <c r="AF2" t="n">
         <v>4.251667857164763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1388010.586909379</v>
+        <v>1639448.661541786</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>661.5753132719273</v>
+        <v>797.0356815657365</v>
       </c>
       <c r="AB3" t="n">
-        <v>905.1965302615833</v>
+        <v>1090.539382250851</v>
       </c>
       <c r="AC3" t="n">
-        <v>818.8058438647266</v>
+        <v>986.459834190465</v>
       </c>
       <c r="AD3" t="n">
-        <v>661575.3132719273</v>
+        <v>797035.6815657364</v>
       </c>
       <c r="AE3" t="n">
-        <v>905196.5302615834</v>
+        <v>1090539.382250851</v>
       </c>
       <c r="AF3" t="n">
         <v>6.079953619542786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.24869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>818805.8438647266</v>
+        <v>986459.834190465</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>558.2778369934607</v>
+        <v>684.0234907183809</v>
       </c>
       <c r="AB4" t="n">
-        <v>763.8603660543603</v>
+        <v>935.911116987515</v>
       </c>
       <c r="AC4" t="n">
-        <v>690.9586048028885</v>
+        <v>846.5890735417286</v>
       </c>
       <c r="AD4" t="n">
-        <v>558277.8369934607</v>
+        <v>684023.4907183809</v>
       </c>
       <c r="AE4" t="n">
-        <v>763860.3660543603</v>
+        <v>935911.116987515</v>
       </c>
       <c r="AF4" t="n">
         <v>6.766319158960997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>690958.6048028886</v>
+        <v>846589.0735417285</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.0141549112079</v>
+        <v>626.1134249048007</v>
       </c>
       <c r="AB5" t="n">
-        <v>697.8238669860431</v>
+        <v>856.6760101295807</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.224536522843</v>
+        <v>774.9160540751444</v>
       </c>
       <c r="AD5" t="n">
-        <v>510014.1549112079</v>
+        <v>626113.4249048007</v>
       </c>
       <c r="AE5" t="n">
-        <v>697823.8669860431</v>
+        <v>856676.0101295807</v>
       </c>
       <c r="AF5" t="n">
         <v>7.124537607281492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.1015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>631224.5365228429</v>
+        <v>774916.0540751445</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>487.127390332974</v>
+        <v>603.2939801342714</v>
       </c>
       <c r="AB6" t="n">
-        <v>666.5091859973107</v>
+        <v>825.45343907169</v>
       </c>
       <c r="AC6" t="n">
-        <v>602.8984847372445</v>
+        <v>746.6733213778652</v>
       </c>
       <c r="AD6" t="n">
-        <v>487127.390332974</v>
+        <v>603293.9801342713</v>
       </c>
       <c r="AE6" t="n">
-        <v>666509.1859973108</v>
+        <v>825453.43907169</v>
       </c>
       <c r="AF6" t="n">
         <v>7.227940870714213e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.75651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>602898.4847372446</v>
+        <v>746673.3213778653</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.1949908520907</v>
+        <v>657.4588861104269</v>
       </c>
       <c r="AB2" t="n">
-        <v>707.6490035164824</v>
+        <v>899.5642530152691</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.1119758124828</v>
+        <v>813.7111032538497</v>
       </c>
       <c r="AD2" t="n">
-        <v>517194.9908520906</v>
+        <v>657458.8861104269</v>
       </c>
       <c r="AE2" t="n">
-        <v>707649.0035164824</v>
+        <v>899564.2530152691</v>
       </c>
       <c r="AF2" t="n">
         <v>8.573556974501785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.95572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>640111.9758124828</v>
+        <v>813711.1032538498</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.3629709702749</v>
+        <v>564.8827483602345</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.6287766753492</v>
+        <v>772.8974971745047</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.7329776382886</v>
+        <v>699.1332448126194</v>
       </c>
       <c r="AD3" t="n">
-        <v>443362.9709702749</v>
+        <v>564882.7483602344</v>
       </c>
       <c r="AE3" t="n">
-        <v>606628.7766753492</v>
+        <v>772897.4971745047</v>
       </c>
       <c r="AF3" t="n">
         <v>9.525683502718811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.16276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>548732.9776382886</v>
+        <v>699133.2448126194</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.2356977801244</v>
+        <v>838.9568198357867</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.3062004019667</v>
+        <v>1147.897733062028</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.5646963636433</v>
+        <v>1038.343984503174</v>
       </c>
       <c r="AD2" t="n">
-        <v>687235.6977801244</v>
+        <v>838956.8198357867</v>
       </c>
       <c r="AE2" t="n">
-        <v>940306.2004019667</v>
+        <v>1147897.733062028</v>
       </c>
       <c r="AF2" t="n">
         <v>6.561253426656858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.63411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>850564.6963636433</v>
+        <v>1038343.984503174</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.4190066092596</v>
+        <v>594.6582528607042</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.0162823815448</v>
+        <v>813.6376560345967</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.4568336770874</v>
+        <v>735.9852200902764</v>
       </c>
       <c r="AD3" t="n">
-        <v>471419.0066092596</v>
+        <v>594658.2528607042</v>
       </c>
       <c r="AE3" t="n">
-        <v>645016.2823815448</v>
+        <v>813637.6560345967</v>
       </c>
       <c r="AF3" t="n">
         <v>8.305032948009097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.99348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>583456.8336770874</v>
+        <v>735985.2200902763</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.3543041713401</v>
+        <v>569.0778259053824</v>
       </c>
       <c r="AB4" t="n">
-        <v>623.0358477813313</v>
+        <v>778.6373873455354</v>
       </c>
       <c r="AC4" t="n">
-        <v>563.5741809053844</v>
+        <v>704.3253279217136</v>
       </c>
       <c r="AD4" t="n">
-        <v>455354.3041713401</v>
+        <v>569077.8259053824</v>
       </c>
       <c r="AE4" t="n">
-        <v>623035.8477813313</v>
+        <v>778637.3873455354</v>
       </c>
       <c r="AF4" t="n">
         <v>8.525038043955898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>563574.1809053845</v>
+        <v>704325.3279217136</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>438.2407548352273</v>
+        <v>558.4395965128261</v>
       </c>
       <c r="AB2" t="n">
-        <v>599.6203345831498</v>
+        <v>764.0816925650824</v>
       </c>
       <c r="AC2" t="n">
-        <v>542.3934114229585</v>
+        <v>691.158808222061</v>
       </c>
       <c r="AD2" t="n">
-        <v>438240.7548352273</v>
+        <v>558439.5965128262</v>
       </c>
       <c r="AE2" t="n">
-        <v>599620.3345831498</v>
+        <v>764081.6925650825</v>
       </c>
       <c r="AF2" t="n">
         <v>1.041107149489028e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.37369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>542393.4114229585</v>
+        <v>691158.808222061</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.567021536412</v>
+        <v>559.7658632140109</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.4349911944682</v>
+        <v>765.8963491764008</v>
       </c>
       <c r="AC3" t="n">
-        <v>544.0348797541792</v>
+        <v>692.8002765532818</v>
       </c>
       <c r="AD3" t="n">
-        <v>439567.021536412</v>
+        <v>559765.8632140108</v>
       </c>
       <c r="AE3" t="n">
-        <v>601434.9911944682</v>
+        <v>765896.3491764008</v>
       </c>
       <c r="AF3" t="n">
         <v>1.042751801904375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>544034.8797541792</v>
+        <v>692800.2765532818</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1214.687568515893</v>
+        <v>1418.507751383551</v>
       </c>
       <c r="AB2" t="n">
-        <v>1661.989119476901</v>
+        <v>1940.864885588281</v>
       </c>
       <c r="AC2" t="n">
-        <v>1503.371210530404</v>
+        <v>1755.63146492871</v>
       </c>
       <c r="AD2" t="n">
-        <v>1214687.568515893</v>
+        <v>1418507.751383551</v>
       </c>
       <c r="AE2" t="n">
-        <v>1661989.119476901</v>
+        <v>1940864.885588281</v>
       </c>
       <c r="AF2" t="n">
         <v>3.982413146111388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1503371.210530404</v>
+        <v>1755631.46492871</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.8985465763742</v>
+        <v>833.4983116399949</v>
       </c>
       <c r="AB3" t="n">
-        <v>941.2131393678206</v>
+        <v>1140.429161336159</v>
       </c>
       <c r="AC3" t="n">
-        <v>851.3850783474928</v>
+        <v>1031.588202780616</v>
       </c>
       <c r="AD3" t="n">
-        <v>687898.5465763742</v>
+        <v>833498.3116399948</v>
       </c>
       <c r="AE3" t="n">
-        <v>941213.1393678207</v>
+        <v>1140429.161336159</v>
       </c>
       <c r="AF3" t="n">
         <v>5.816212593651789e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.81510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>851385.0783474928</v>
+        <v>1031588.202780616</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>579.754001108126</v>
+        <v>715.6106720541392</v>
       </c>
       <c r="AB4" t="n">
-        <v>793.2450012575379</v>
+        <v>979.1300920191899</v>
       </c>
       <c r="AC4" t="n">
-        <v>717.5388116638693</v>
+        <v>885.6832902545926</v>
       </c>
       <c r="AD4" t="n">
-        <v>579754.001108126</v>
+        <v>715610.6720541392</v>
       </c>
       <c r="AE4" t="n">
-        <v>793245.0012575379</v>
+        <v>979130.0920191898</v>
       </c>
       <c r="AF4" t="n">
         <v>6.495006690109402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.80078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>717538.8116638693</v>
+        <v>885683.2902545927</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>528.7897009931673</v>
+        <v>645.229525571384</v>
       </c>
       <c r="AB5" t="n">
-        <v>723.5133974540133</v>
+        <v>882.8315024044412</v>
       </c>
       <c r="AC5" t="n">
-        <v>654.4622942584325</v>
+        <v>798.5753028767563</v>
       </c>
       <c r="AD5" t="n">
-        <v>528789.7009931674</v>
+        <v>645229.525571384</v>
       </c>
       <c r="AE5" t="n">
-        <v>723513.3974540133</v>
+        <v>882831.5024044411</v>
       </c>
       <c r="AF5" t="n">
         <v>6.87159969849677e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>654462.2942584325</v>
+        <v>798575.3028767563</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>494.1399475098713</v>
+        <v>610.6470918957926</v>
       </c>
       <c r="AB6" t="n">
-        <v>676.1040760989301</v>
+        <v>835.5142909801995</v>
       </c>
       <c r="AC6" t="n">
-        <v>611.5776519940781</v>
+        <v>755.7739797007208</v>
       </c>
       <c r="AD6" t="n">
-        <v>494139.9475098713</v>
+        <v>610647.0918957926</v>
       </c>
       <c r="AE6" t="n">
-        <v>676104.0760989301</v>
+        <v>835514.2909801995</v>
       </c>
       <c r="AF6" t="n">
         <v>7.065430549703664e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.71744791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>611577.6519940781</v>
+        <v>755773.9797007209</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>493.9123457757668</v>
+        <v>610.4194901616879</v>
       </c>
       <c r="AB7" t="n">
-        <v>675.7926613652483</v>
+        <v>835.2028762465177</v>
       </c>
       <c r="AC7" t="n">
-        <v>611.2959582455055</v>
+        <v>755.4922859521482</v>
       </c>
       <c r="AD7" t="n">
-        <v>493912.3457757668</v>
+        <v>610419.490161688</v>
       </c>
       <c r="AE7" t="n">
-        <v>675792.6613652483</v>
+        <v>835202.8762465176</v>
       </c>
       <c r="AF7" t="n">
         <v>7.074182540329208e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.69140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>611295.9582455055</v>
+        <v>755492.2859521483</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.0943207427215</v>
+        <v>569.6460926000352</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.5247093482265</v>
+        <v>779.4149149073166</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.9251581402805</v>
+        <v>705.0286493442652</v>
       </c>
       <c r="AD2" t="n">
-        <v>441094.3207427216</v>
+        <v>569646.0926000352</v>
       </c>
       <c r="AE2" t="n">
-        <v>603524.7093482264</v>
+        <v>779414.9149073167</v>
       </c>
       <c r="AF2" t="n">
         <v>1.09615819718014e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>545925.1581402805</v>
+        <v>705028.6493442652</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>880.9740904260523</v>
+        <v>1063.086191476759</v>
       </c>
       <c r="AB2" t="n">
-        <v>1205.387616354782</v>
+        <v>1454.56142723123</v>
       </c>
       <c r="AC2" t="n">
-        <v>1090.347114022026</v>
+        <v>1315.740126106065</v>
       </c>
       <c r="AD2" t="n">
-        <v>880974.0904260522</v>
+        <v>1063086.191476759</v>
       </c>
       <c r="AE2" t="n">
-        <v>1205387.616354782</v>
+        <v>1454561.42723123</v>
       </c>
       <c r="AF2" t="n">
         <v>5.22773918584543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.72265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1090347.114022026</v>
+        <v>1315740.126106065</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>565.9736705694024</v>
+        <v>700.1777181209242</v>
       </c>
       <c r="AB3" t="n">
-        <v>774.3901450691792</v>
+        <v>958.0140435938898</v>
       </c>
       <c r="AC3" t="n">
-        <v>700.4834364871708</v>
+        <v>866.5825278544431</v>
       </c>
       <c r="AD3" t="n">
-        <v>565973.6705694024</v>
+        <v>700177.7181209242</v>
       </c>
       <c r="AE3" t="n">
-        <v>774390.1450691792</v>
+        <v>958014.0435938898</v>
       </c>
       <c r="AF3" t="n">
         <v>7.022139292651587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.59505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>700483.4364871709</v>
+        <v>866582.5278544432</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.798569784371</v>
+        <v>602.7925753797831</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.4275233330599</v>
+        <v>824.7673949661826</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.7291772465641</v>
+        <v>746.0527523589184</v>
       </c>
       <c r="AD4" t="n">
-        <v>487798.5697843709</v>
+        <v>602792.5753797831</v>
       </c>
       <c r="AE4" t="n">
-        <v>667427.5233330599</v>
+        <v>824767.3949661825</v>
       </c>
       <c r="AF4" t="n">
         <v>7.671232553793264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.34244791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>603729.1772465641</v>
+        <v>746052.7523589184</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>465.4593302142979</v>
+        <v>590.0407685634459</v>
       </c>
       <c r="AB5" t="n">
-        <v>636.8619902155918</v>
+        <v>807.3198103100575</v>
       </c>
       <c r="AC5" t="n">
-        <v>576.0807757108321</v>
+        <v>730.2703406945351</v>
       </c>
       <c r="AD5" t="n">
-        <v>465459.3302142979</v>
+        <v>590040.7685634459</v>
       </c>
       <c r="AE5" t="n">
-        <v>636861.9902155919</v>
+        <v>807319.8103100575</v>
       </c>
       <c r="AF5" t="n">
         <v>7.807189339379282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>576080.7757108321</v>
+        <v>730270.3406945351</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1032.500987514141</v>
+        <v>1225.488630763959</v>
       </c>
       <c r="AB2" t="n">
-        <v>1412.713401845607</v>
+        <v>1676.76760935394</v>
       </c>
       <c r="AC2" t="n">
-        <v>1277.886017529175</v>
+        <v>1516.739262075319</v>
       </c>
       <c r="AD2" t="n">
-        <v>1032500.987514141</v>
+        <v>1225488.630763959</v>
       </c>
       <c r="AE2" t="n">
-        <v>1412713.401845607</v>
+        <v>1676767.60935394</v>
       </c>
       <c r="AF2" t="n">
         <v>4.54980292609941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.74348958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1277886.017529175</v>
+        <v>1516739.262075319</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.2994342616239</v>
+        <v>761.4147003296432</v>
       </c>
       <c r="AB3" t="n">
-        <v>856.9305163377396</v>
+        <v>1041.801184236846</v>
       </c>
       <c r="AC3" t="n">
-        <v>775.1462705679985</v>
+        <v>942.3731413904259</v>
       </c>
       <c r="AD3" t="n">
-        <v>626299.4342616239</v>
+        <v>761414.7003296432</v>
       </c>
       <c r="AE3" t="n">
-        <v>856930.5163377397</v>
+        <v>1041801.184236846</v>
       </c>
       <c r="AF3" t="n">
         <v>6.364580017063073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.6953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>775146.2705679985</v>
+        <v>942373.1413904259</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.5338294999094</v>
+        <v>654.3137603121452</v>
       </c>
       <c r="AB4" t="n">
-        <v>736.8457439575482</v>
+        <v>895.2609531449026</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.5222203237358</v>
+        <v>809.8185042833917</v>
       </c>
       <c r="AD4" t="n">
-        <v>538533.8294999094</v>
+        <v>654313.7603121452</v>
       </c>
       <c r="AE4" t="n">
-        <v>736845.7439575482</v>
+        <v>895260.9531449026</v>
       </c>
       <c r="AF4" t="n">
         <v>7.041161838682973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.03255208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>666522.2203237358</v>
+        <v>809818.5042833916</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.8875743856956</v>
+        <v>607.2834191827234</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.3398386538797</v>
+        <v>830.9119655794112</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.4133698420284</v>
+        <v>751.6108937767796</v>
       </c>
       <c r="AD5" t="n">
-        <v>481887.5743856956</v>
+        <v>607283.4191827234</v>
       </c>
       <c r="AE5" t="n">
-        <v>659339.8386538797</v>
+        <v>830911.9655794112</v>
       </c>
       <c r="AF5" t="n">
         <v>7.393937394333526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.84114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>596413.3698420284</v>
+        <v>751610.8937767795</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>480.2722773846488</v>
+        <v>605.6681221816766</v>
       </c>
       <c r="AB6" t="n">
-        <v>657.1297180351731</v>
+        <v>828.7018449607045</v>
       </c>
       <c r="AC6" t="n">
-        <v>594.4141800332474</v>
+        <v>749.6117039679987</v>
       </c>
       <c r="AD6" t="n">
-        <v>480272.2773846488</v>
+        <v>605668.1221816766</v>
       </c>
       <c r="AE6" t="n">
-        <v>657129.7180351731</v>
+        <v>828701.8449607046</v>
       </c>
       <c r="AF6" t="n">
         <v>7.410723337887121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.78255208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>594414.1800332473</v>
+        <v>749611.7039679986</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1416.832741523043</v>
+        <v>1651.07245012799</v>
       </c>
       <c r="AB2" t="n">
-        <v>1938.573063200914</v>
+        <v>2259.070166440814</v>
       </c>
       <c r="AC2" t="n">
-        <v>1753.5583708534</v>
+        <v>2043.467680380594</v>
       </c>
       <c r="AD2" t="n">
-        <v>1416832.741523043</v>
+        <v>1651072.45012799</v>
       </c>
       <c r="AE2" t="n">
-        <v>1938573.063200914</v>
+        <v>2259070.166440814</v>
       </c>
       <c r="AF2" t="n">
         <v>3.492660433396509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.87890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1753558.3708534</v>
+        <v>2043467.680380594</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.9878949278614</v>
+        <v>909.3630997717249</v>
       </c>
       <c r="AB3" t="n">
-        <v>1043.953698490575</v>
+        <v>1244.230711376231</v>
       </c>
       <c r="AC3" t="n">
-        <v>944.3202227048524</v>
+        <v>1125.483078571254</v>
       </c>
       <c r="AD3" t="n">
-        <v>762987.8949278614</v>
+        <v>909363.0997717249</v>
       </c>
       <c r="AE3" t="n">
-        <v>1043953.698490575</v>
+        <v>1244230.711376231</v>
       </c>
       <c r="AF3" t="n">
         <v>5.337807024135261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.01953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>944320.2227048525</v>
+        <v>1125483.078571254</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>628.8984590576292</v>
+        <v>765.4424980871598</v>
       </c>
       <c r="AB4" t="n">
-        <v>860.4866167245158</v>
+        <v>1047.312194822576</v>
       </c>
       <c r="AC4" t="n">
-        <v>778.362981724879</v>
+        <v>947.3581888606062</v>
       </c>
       <c r="AD4" t="n">
-        <v>628898.4590576292</v>
+        <v>765442.4980871598</v>
       </c>
       <c r="AE4" t="n">
-        <v>860486.6167245158</v>
+        <v>1047312.194822576</v>
       </c>
       <c r="AF4" t="n">
         <v>6.046626842906449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.49739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>778362.981724879</v>
+        <v>947358.1888606062</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>566.4235875307014</v>
+        <v>693.3062768099462</v>
       </c>
       <c r="AB5" t="n">
-        <v>775.0057413045641</v>
+        <v>948.6122344456139</v>
       </c>
       <c r="AC5" t="n">
-        <v>701.0402810818453</v>
+        <v>858.0780141757567</v>
       </c>
       <c r="AD5" t="n">
-        <v>566423.5875307014</v>
+        <v>693306.2768099462</v>
       </c>
       <c r="AE5" t="n">
-        <v>775005.7413045642</v>
+        <v>948612.2344456139</v>
       </c>
       <c r="AF5" t="n">
         <v>6.410389236011941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.99348958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>701040.2810818453</v>
+        <v>858078.0141757567</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.1351593542595</v>
+        <v>651.2218592678094</v>
       </c>
       <c r="AB6" t="n">
-        <v>730.8272894086388</v>
+        <v>891.030477730995</v>
       </c>
       <c r="AC6" t="n">
-        <v>661.0781586300203</v>
+        <v>805.991779505478</v>
       </c>
       <c r="AD6" t="n">
-        <v>534135.1593542595</v>
+        <v>651221.8592678093</v>
       </c>
       <c r="AE6" t="n">
-        <v>730827.2894086387</v>
+        <v>891030.477730995</v>
       </c>
       <c r="AF6" t="n">
         <v>6.667828656301756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.02994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>661078.1586300203</v>
+        <v>805991.779505478</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>507.3516407128605</v>
+        <v>624.5056604341147</v>
       </c>
       <c r="AB7" t="n">
-        <v>694.180897598028</v>
+        <v>854.4761958512256</v>
       </c>
       <c r="AC7" t="n">
-        <v>627.9292470202802</v>
+        <v>772.926186984057</v>
       </c>
       <c r="AD7" t="n">
-        <v>507351.6407128605</v>
+        <v>624505.6604341147</v>
       </c>
       <c r="AE7" t="n">
-        <v>694180.897598028</v>
+        <v>854476.1958512256</v>
       </c>
       <c r="AF7" t="n">
         <v>6.776120573058465e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>627929.2470202802</v>
+        <v>772926.1869840571</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>507.4140737618633</v>
+        <v>624.5680934831177</v>
       </c>
       <c r="AB8" t="n">
-        <v>694.2663212500252</v>
+        <v>854.5616195032231</v>
       </c>
       <c r="AC8" t="n">
-        <v>628.0065179588238</v>
+        <v>773.0034579226007</v>
       </c>
       <c r="AD8" t="n">
-        <v>507414.0737618633</v>
+        <v>624568.0934831176</v>
       </c>
       <c r="AE8" t="n">
-        <v>694266.3212500252</v>
+        <v>854561.6195032231</v>
       </c>
       <c r="AF8" t="n">
         <v>6.790641534623569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH8" t="n">
-        <v>628006.5179588238</v>
+        <v>773003.4579226007</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.7822434822551</v>
+        <v>907.5836918799774</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.412167122927</v>
+        <v>1241.796046996807</v>
       </c>
       <c r="AC2" t="n">
-        <v>923.0254620501854</v>
+        <v>1123.280775143129</v>
       </c>
       <c r="AD2" t="n">
-        <v>745782.2434822551</v>
+        <v>907583.6918799775</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020412.167122927</v>
+        <v>1241796.046996807</v>
       </c>
       <c r="AF2" t="n">
         <v>6.060357467162683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.96223958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>923025.4620501854</v>
+        <v>1123280.775143129</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.6120529806671</v>
+        <v>630.3686988403459</v>
       </c>
       <c r="AB3" t="n">
-        <v>693.1689610345329</v>
+        <v>862.4982636576302</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.0138882621433</v>
+        <v>780.1826398980612</v>
       </c>
       <c r="AD3" t="n">
-        <v>506612.0529806671</v>
+        <v>630368.698840346</v>
       </c>
       <c r="AE3" t="n">
-        <v>693168.9610345329</v>
+        <v>862498.2636576302</v>
       </c>
       <c r="AF3" t="n">
         <v>7.822438923922265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.53385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>627013.8882621432</v>
+        <v>780182.6398980612</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.5958011745699</v>
+        <v>575.7653852373383</v>
       </c>
       <c r="AB4" t="n">
-        <v>631.5757393365643</v>
+        <v>787.7876010578127</v>
       </c>
       <c r="AC4" t="n">
-        <v>571.2990371963992</v>
+        <v>712.6022580796966</v>
       </c>
       <c r="AD4" t="n">
-        <v>461595.8011745699</v>
+        <v>575765.3852373383</v>
       </c>
       <c r="AE4" t="n">
-        <v>631575.7393365643</v>
+        <v>787787.6010578127</v>
       </c>
       <c r="AF4" t="n">
         <v>8.267024685866307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>571299.0371963993</v>
+        <v>712602.2580796967</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.1430706807456</v>
+        <v>720.0555859839625</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.4090992944476</v>
+        <v>985.2118193537369</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.7826870109407</v>
+        <v>891.1845860680886</v>
       </c>
       <c r="AD2" t="n">
-        <v>579143.0706807456</v>
+        <v>720055.5859839625</v>
       </c>
       <c r="AE2" t="n">
-        <v>792409.0992944476</v>
+        <v>985211.8193537369</v>
       </c>
       <c r="AF2" t="n">
         <v>7.782429875771777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.18619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>716782.6870109406</v>
+        <v>891184.5860680887</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.1279196074557</v>
+        <v>563.3058879810835</v>
       </c>
       <c r="AB3" t="n">
-        <v>603.570680797233</v>
+        <v>770.7399672375801</v>
       </c>
       <c r="AC3" t="n">
-        <v>545.9667421387152</v>
+        <v>697.1816265047627</v>
       </c>
       <c r="AD3" t="n">
-        <v>441127.9196074557</v>
+        <v>563305.8879810835</v>
       </c>
       <c r="AE3" t="n">
-        <v>603570.680797233</v>
+        <v>770739.9672375801</v>
       </c>
       <c r="AF3" t="n">
         <v>9.14410216721111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.83723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>545966.7421387152</v>
+        <v>697181.6265047627</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.2343817131028</v>
+        <v>595.4837601414542</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.5542057522293</v>
+        <v>814.7671515149297</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.8023657646747</v>
+        <v>737.0069181072232</v>
       </c>
       <c r="AD2" t="n">
-        <v>465234.3817131028</v>
+        <v>595483.7601414543</v>
       </c>
       <c r="AE2" t="n">
-        <v>636554.2057522293</v>
+        <v>814767.1515149296</v>
       </c>
       <c r="AF2" t="n">
         <v>9.543986006202242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.72526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>575802.3657646747</v>
+        <v>737006.9181072232</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.8172242336767</v>
+        <v>557.7948006631567</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.6725972123705</v>
+        <v>763.1994544371795</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.6315633731797</v>
+        <v>690.3607696628562</v>
       </c>
       <c r="AD3" t="n">
-        <v>436817.2242336767</v>
+        <v>557794.8006631567</v>
       </c>
       <c r="AE3" t="n">
-        <v>597672.5972123705</v>
+        <v>763199.4544371795</v>
       </c>
       <c r="AF3" t="n">
         <v>9.943627441660441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>540631.5633731796</v>
+        <v>690360.7696628562</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.051929559453</v>
+        <v>590.716176115802</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.2538813806347</v>
+        <v>808.2439327200696</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.9622828769649</v>
+        <v>731.1062661587496</v>
       </c>
       <c r="AD2" t="n">
-        <v>454051.929559453</v>
+        <v>590716.176115802</v>
       </c>
       <c r="AE2" t="n">
-        <v>621253.8813806346</v>
+        <v>808243.9327200695</v>
       </c>
       <c r="AF2" t="n">
         <v>1.154131851727727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.23177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>561962.2828769649</v>
+        <v>731106.2661587496</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>959.6993102009592</v>
+        <v>1142.386093626601</v>
       </c>
       <c r="AB2" t="n">
-        <v>1313.102935162386</v>
+        <v>1563.063051817417</v>
       </c>
       <c r="AC2" t="n">
-        <v>1187.782233982032</v>
+        <v>1413.886507924734</v>
       </c>
       <c r="AD2" t="n">
-        <v>959699.3102009592</v>
+        <v>1142386.0936266</v>
       </c>
       <c r="AE2" t="n">
-        <v>1313102.935162386</v>
+        <v>1563063.051817417</v>
       </c>
       <c r="AF2" t="n">
         <v>4.871118410931926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.20703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1187782.233982032</v>
+        <v>1413886.507924734</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.533628260462</v>
+        <v>736.1182357250176</v>
       </c>
       <c r="AB3" t="n">
-        <v>823.0448479767007</v>
+        <v>1007.189445363542</v>
       </c>
       <c r="AC3" t="n">
-        <v>744.4946028365027</v>
+        <v>911.06469829731</v>
       </c>
       <c r="AD3" t="n">
-        <v>601533.6282604621</v>
+        <v>736118.2357250176</v>
       </c>
       <c r="AE3" t="n">
-        <v>823044.8479767006</v>
+        <v>1007189.445363542</v>
       </c>
       <c r="AF3" t="n">
         <v>6.671689555171707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.16796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>744494.6028365027</v>
+        <v>911064.6982973099</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.0982790149961</v>
+        <v>634.1297710950389</v>
       </c>
       <c r="AB4" t="n">
-        <v>696.5707251792534</v>
+        <v>867.6443286432985</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.0909928112975</v>
+        <v>784.8375716640448</v>
       </c>
       <c r="AD4" t="n">
-        <v>509098.2790149961</v>
+        <v>634129.7710950389</v>
       </c>
       <c r="AE4" t="n">
-        <v>696570.7251792534</v>
+        <v>867644.3286432986</v>
       </c>
       <c r="AF4" t="n">
         <v>7.33562928600224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.70703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>630090.9928112975</v>
+        <v>784837.5716640449</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.253173471455</v>
+        <v>597.250500132717</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.1576262832451</v>
+        <v>817.1844831140426</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.4892493186959</v>
+        <v>739.1935429712631</v>
       </c>
       <c r="AD5" t="n">
-        <v>472253.173471455</v>
+        <v>597250.500132717</v>
       </c>
       <c r="AE5" t="n">
-        <v>646157.6262832452</v>
+        <v>817184.4831140426</v>
       </c>
       <c r="AF5" t="n">
         <v>7.607051188543024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.82161458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>584489.2493186959</v>
+        <v>739193.5429712632</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>473.6651802704047</v>
+        <v>598.6625069316666</v>
       </c>
       <c r="AB6" t="n">
-        <v>648.0895962789117</v>
+        <v>819.116453109709</v>
       </c>
       <c r="AC6" t="n">
-        <v>586.2368348095129</v>
+        <v>740.9411284620802</v>
       </c>
       <c r="AD6" t="n">
-        <v>473665.1802704047</v>
+        <v>598662.5069316666</v>
       </c>
       <c r="AE6" t="n">
-        <v>648089.5962789117</v>
+        <v>819116.4531097091</v>
       </c>
       <c r="AF6" t="n">
         <v>7.605380899912004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>586236.8348095128</v>
+        <v>740941.1284620801</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1308.03722162509</v>
+        <v>1531.904453025607</v>
       </c>
       <c r="AB2" t="n">
-        <v>1789.714233156944</v>
+        <v>2096.019255484344</v>
       </c>
       <c r="AC2" t="n">
-        <v>1618.906418624147</v>
+        <v>1895.978119522419</v>
       </c>
       <c r="AD2" t="n">
-        <v>1308037.22162509</v>
+        <v>1531904.453025607</v>
       </c>
       <c r="AE2" t="n">
-        <v>1789714.233156944</v>
+        <v>2096019.255484344</v>
       </c>
       <c r="AF2" t="n">
         <v>3.725877659317571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.95182291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1618906.418624147</v>
+        <v>1895978.119522419</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.7912410271699</v>
+        <v>870.7346876950836</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.6913515062089</v>
+        <v>1191.377613807704</v>
       </c>
       <c r="AC3" t="n">
-        <v>897.045720766009</v>
+        <v>1077.674206454879</v>
       </c>
       <c r="AD3" t="n">
-        <v>724791.2410271699</v>
+        <v>870734.6876950836</v>
       </c>
       <c r="AE3" t="n">
-        <v>991691.3515062089</v>
+        <v>1191377.613807704</v>
       </c>
       <c r="AF3" t="n">
         <v>5.568944470674569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.40755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>897045.7207660091</v>
+        <v>1077674.206454879</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>610.0684421743695</v>
+        <v>736.5733966751441</v>
       </c>
       <c r="AB4" t="n">
-        <v>834.7225569031244</v>
+        <v>1007.812216655789</v>
       </c>
       <c r="AC4" t="n">
-        <v>755.0578076127561</v>
+        <v>911.6280331714897</v>
       </c>
       <c r="AD4" t="n">
-        <v>610068.4421743695</v>
+        <v>736573.3966751441</v>
       </c>
       <c r="AE4" t="n">
-        <v>834722.5569031244</v>
+        <v>1007812.216655789</v>
       </c>
       <c r="AF4" t="n">
         <v>6.255409507960395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.17838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>755057.807612756</v>
+        <v>911628.0331714897</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>547.0117065059466</v>
+        <v>673.5498153956446</v>
       </c>
       <c r="AB5" t="n">
-        <v>748.4455492947449</v>
+        <v>921.5805723450032</v>
       </c>
       <c r="AC5" t="n">
-        <v>677.0149565199795</v>
+        <v>833.6262159668522</v>
       </c>
       <c r="AD5" t="n">
-        <v>547011.7065059466</v>
+        <v>673549.8153956446</v>
       </c>
       <c r="AE5" t="n">
-        <v>748445.5492947449</v>
+        <v>921580.5723450033</v>
       </c>
       <c r="AF5" t="n">
         <v>6.63951801361648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.66796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>677014.9565199795</v>
+        <v>833626.2159668523</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.7379121063889</v>
+        <v>634.2418555773063</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.7094111597446</v>
+        <v>867.7976875767552</v>
       </c>
       <c r="AC6" t="n">
-        <v>628.4073199894402</v>
+        <v>784.9762942361331</v>
       </c>
       <c r="AD6" t="n">
-        <v>507737.9121063889</v>
+        <v>634241.8555773062</v>
       </c>
       <c r="AE6" t="n">
-        <v>694709.4111597446</v>
+        <v>867797.6875767552</v>
       </c>
       <c r="AF6" t="n">
         <v>6.877982233237939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.80859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>628407.3199894403</v>
+        <v>784976.2942361331</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>499.4122688454113</v>
+        <v>616.2482143609303</v>
       </c>
       <c r="AB7" t="n">
-        <v>683.3178987486172</v>
+        <v>843.1779938410845</v>
       </c>
       <c r="AC7" t="n">
-        <v>618.1029975347427</v>
+        <v>762.7062695166376</v>
       </c>
       <c r="AD7" t="n">
-        <v>499412.2688454113</v>
+        <v>616248.2143609304</v>
       </c>
       <c r="AE7" t="n">
-        <v>683317.8987486172</v>
+        <v>843177.9938410844</v>
       </c>
       <c r="AF7" t="n">
         <v>6.938604466285166e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.60026041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>618102.9975347427</v>
+        <v>762706.2695166375</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.6554706765369</v>
+        <v>643.0583645315833</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.9682170544071</v>
+        <v>879.860824084921</v>
       </c>
       <c r="AC2" t="n">
-        <v>606.027390725032</v>
+        <v>795.8881419266778</v>
       </c>
       <c r="AD2" t="n">
-        <v>489655.470676537</v>
+        <v>643058.3645315833</v>
       </c>
       <c r="AE2" t="n">
-        <v>669968.2170544071</v>
+        <v>879860.8240849209</v>
       </c>
       <c r="AF2" t="n">
         <v>1.193515395615388e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.28776041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>606027.390725032</v>
+        <v>795888.1419266778</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>633.2667037995981</v>
+        <v>784.2207789225644</v>
       </c>
       <c r="AB2" t="n">
-        <v>866.4634418938346</v>
+        <v>1073.005467100859</v>
       </c>
       <c r="AC2" t="n">
-        <v>783.7693870885647</v>
+        <v>970.5993312933836</v>
       </c>
       <c r="AD2" t="n">
-        <v>633266.703799598</v>
+        <v>784220.7789225644</v>
       </c>
       <c r="AE2" t="n">
-        <v>866463.4418938345</v>
+        <v>1073005.467100859</v>
       </c>
       <c r="AF2" t="n">
         <v>7.115922968672416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.43619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>783769.3870885647</v>
+        <v>970599.3312933836</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.3131787406459</v>
+        <v>572.0394155085539</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.770113451411</v>
+        <v>782.689564896707</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.0973166588809</v>
+        <v>707.990771334668</v>
       </c>
       <c r="AD3" t="n">
-        <v>449313.1787406459</v>
+        <v>572039.415508554</v>
       </c>
       <c r="AE3" t="n">
-        <v>614770.113451411</v>
+        <v>782689.564896707</v>
       </c>
       <c r="AF3" t="n">
         <v>8.797342141315847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.62239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>556097.3166588809</v>
+        <v>707990.771334668</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.3076295324175</v>
+        <v>571.0338663003256</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.3942766630128</v>
+        <v>781.3137281083087</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.8527878025684</v>
+        <v>706.7462424783555</v>
       </c>
       <c r="AD4" t="n">
-        <v>448307.6295324175</v>
+        <v>571033.8663003256</v>
       </c>
       <c r="AE4" t="n">
-        <v>613394.2766630128</v>
+        <v>781313.7281083087</v>
       </c>
       <c r="AF4" t="n">
         <v>8.830278527958447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>554852.7878025684</v>
+        <v>706746.2424783555</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>815.7097804069791</v>
+        <v>978.076575734352</v>
       </c>
       <c r="AB2" t="n">
-        <v>1116.090108128536</v>
+        <v>1338.24752061291</v>
       </c>
       <c r="AC2" t="n">
-        <v>1009.572034651053</v>
+        <v>1210.527055487805</v>
       </c>
       <c r="AD2" t="n">
-        <v>815709.7804069791</v>
+        <v>978076.575734352</v>
       </c>
       <c r="AE2" t="n">
-        <v>1116090.108128536</v>
+        <v>1338247.52061291</v>
       </c>
       <c r="AF2" t="n">
         <v>5.625607560854341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.28385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1009572.034651053</v>
+        <v>1210527.055487805</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.2409437245564</v>
+        <v>666.3879472554403</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.9179811860471</v>
+        <v>911.7813883962524</v>
       </c>
       <c r="AC3" t="n">
-        <v>671.1103703500764</v>
+        <v>824.7622523809295</v>
       </c>
       <c r="AD3" t="n">
-        <v>542240.9437245564</v>
+        <v>666387.9472554403</v>
       </c>
       <c r="AE3" t="n">
-        <v>741917.9811860471</v>
+        <v>911781.3883962524</v>
       </c>
       <c r="AF3" t="n">
         <v>7.387942441292597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.10677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>671110.3703500765</v>
+        <v>824762.2523809294</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.0554255649433</v>
+        <v>584.6474811467052</v>
       </c>
       <c r="AB4" t="n">
-        <v>643.1505706397614</v>
+        <v>799.9404765314247</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.7691828453969</v>
+        <v>723.5952801747751</v>
       </c>
       <c r="AD4" t="n">
-        <v>470055.4255649433</v>
+        <v>584647.4811467052</v>
       </c>
       <c r="AE4" t="n">
-        <v>643150.5706397614</v>
+        <v>799940.4765314247</v>
       </c>
       <c r="AF4" t="n">
         <v>8.005603934940901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>581769.1828453969</v>
+        <v>723595.280174775</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.1602326760503</v>
+        <v>583.7522882578121</v>
       </c>
       <c r="AB5" t="n">
-        <v>641.9257282360549</v>
+        <v>798.7156341277182</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.6612376816231</v>
+        <v>722.4873350110011</v>
       </c>
       <c r="AD5" t="n">
-        <v>469160.2326760503</v>
+        <v>583752.2882578121</v>
       </c>
       <c r="AE5" t="n">
-        <v>641925.7282360549</v>
+        <v>798715.6341277182</v>
       </c>
       <c r="AF5" t="n">
         <v>8.025748290609047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.02994791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>580661.2376816231</v>
+        <v>722487.3350110011</v>
       </c>
     </row>
   </sheetData>
